--- a/library/library_2002.xlsx
+++ b/library/library_2002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8EB8E8-75BE-5343-8385-2B07D09A2A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99FBF37-55CA-5D49-A369-5C3A89A1C24A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="61">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -54,9 +54,6 @@
     <t>11.16.16</t>
   </si>
   <si>
-    <t>2.10.17</t>
-  </si>
-  <si>
     <t>TGAGGTT</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>1.24.17</t>
   </si>
   <si>
-    <t>2.1.17</t>
-  </si>
-  <si>
     <t>AAATGCA</t>
   </si>
   <si>
@@ -211,6 +205,9 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>02.10.17</t>
   </si>
 </sst>
 </file>
@@ -594,7 +591,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B49 E2:E49"/>
+      <selection activeCell="D3" sqref="D3:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,25 +631,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -660,25 +657,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -686,25 +683,25 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -712,25 +709,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -738,25 +735,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -764,25 +761,25 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -790,25 +787,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -816,25 +813,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -842,25 +839,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -868,25 +865,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -894,25 +891,25 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -920,25 +917,25 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -946,25 +943,25 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -972,25 +969,25 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -998,25 +995,25 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1024,25 +1021,25 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1050,25 +1047,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1076,25 +1073,25 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1102,25 +1099,25 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1128,25 +1125,25 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1154,727 +1151,727 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28">
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F30">
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33">
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37">
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F40">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F42">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44">
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48">
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49">
         <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
